--- a/build/temp/pages/StructureDefinition-plannet-InsurancePlan.xlsx
+++ b/build/temp/pages/StructureDefinition-plannet-InsurancePlan.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$89</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3506" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2914" uniqueCount="369">
   <si>
     <t>Path</t>
   </si>
@@ -559,6 +559,9 @@
     <t>Default interpretation is active.</t>
   </si>
   <si>
+    <t>active</t>
+  </si>
+  <si>
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
@@ -642,10 +645,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-Organization)
-</t>
-  </si>
-  <si>
     <t>Plan issuer</t>
   </si>
   <si>
@@ -664,7 +663,7 @@
     <t>InsurancePlan.coverageArea</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-Location)
+    <t xml:space="preserve">Reference(Location)
 </t>
   </si>
   <si>
@@ -759,152 +758,6 @@
     <t>./name</t>
   </si>
   <si>
-    <t>InsurancePlan.contact.name.id</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.name.extension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.name.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this name.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
-  </si>
-  <si>
-    <t>The use of a human name.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
-  </si>
-  <si>
-    <t>HumanName.use</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.name.text</t>
-  </si>
-  <si>
-    <t>Text representation of the full name</t>
-  </si>
-  <si>
-    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
-  </si>
-  <si>
-    <t>A renderable, unencoded form.</t>
-  </si>
-  <si>
-    <t>HumanName.text</t>
-  </si>
-  <si>
-    <t>./formatted</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.name.family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surname
-</t>
-  </si>
-  <si>
-    <t>Family name (often called 'Surname')</t>
-  </si>
-  <si>
-    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
-  </si>
-  <si>
-    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
-  </si>
-  <si>
-    <t>HumanName.family</t>
-  </si>
-  <si>
-    <t>./part[partType = FAM]</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.name.given</t>
-  </si>
-  <si>
-    <t>first name
-middle name</t>
-  </si>
-  <si>
-    <t>Given names (not always 'first'). Includes middle names</t>
-  </si>
-  <si>
-    <t>Given name.</t>
-  </si>
-  <si>
-    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
-  </si>
-  <si>
-    <t>HumanName.given</t>
-  </si>
-  <si>
-    <t>./part[partType = GIV]</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.name.prefix</t>
-  </si>
-  <si>
-    <t>Parts that come before the name</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
-  </si>
-  <si>
-    <t>HumanName.prefix</t>
-  </si>
-  <si>
-    <t>./part[partType = PFX]</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.name.suffix</t>
-  </si>
-  <si>
-    <t>Parts that come after the name</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
-  </si>
-  <si>
-    <t>HumanName.suffix</t>
-  </si>
-  <si>
-    <t>./part[partType = SFX]</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.name.period</t>
-  </si>
-  <si>
-    <t>Time period when name was/is in use</t>
-  </si>
-  <si>
-    <t>Indicates the period of time when this name was valid for the named person.</t>
-  </si>
-  <si>
-    <t>Allows names to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>HumanName.period</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
-  </si>
-  <si>
     <t>InsurancePlan.contact.telecom</t>
   </si>
   <si>
@@ -924,382 +777,245 @@
     <t>./telecom</t>
   </si>
   <si>
-    <t>InsurancePlan.contact.telecom.id</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.telecom.extension</t>
-  </si>
-  <si>
-    <t>contactpoint-availabletime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/vhdir/StructureDefinition/contactpoint-availabletime}
+    <t>InsurancePlan.contact.address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address
 </t>
   </si>
   <si>
-    <t>Available time</t>
-  </si>
-  <si>
-    <t>Time period when the contact point is to be used</t>
-  </si>
-  <si>
-    <t>via-intermediary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/via-intermediary}
+    <t>Visiting or postal addresses for the contact</t>
+  </si>
+  <si>
+    <t>Visiting or postal addresses for the contact.</t>
+  </si>
+  <si>
+    <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
+  </si>
+  <si>
+    <t>./addr</t>
+  </si>
+  <si>
+    <t>InsurancePlan.endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Endpoint)
 </t>
   </si>
   <si>
-    <t>Via Intermediary</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.telecom.system</t>
-  </si>
-  <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpt-2
+    <t>Technical endpoint</t>
+  </si>
+  <si>
+    <t>The technical endpoints providing access to services operated for the health insurance product.</t>
+  </si>
+  <si>
+    <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.network</t>
+  </si>
+  <si>
+    <t>What networks are Included</t>
+  </si>
+  <si>
+    <t>Reference to the network included in the health insurance product.</t>
+  </si>
+  <si>
+    <t>Networks are represented as a hierarchy of organization resources.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage</t>
+  </si>
+  <si>
+    <t>Coverage details</t>
+  </si>
+  <si>
+    <t>Details about the coverage offered by the insurance product.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.id</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.extension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.modifierExtension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.type</t>
+  </si>
+  <si>
+    <t>Type of coverage</t>
+  </si>
+  <si>
+    <t>Type of coverage  (Medical; Dental; Mental Health; Substance Abuse; Vision; Drug; Short Term; Long Term Care; Hospice; Home Health).</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.network</t>
+  </si>
+  <si>
+    <t>What networks provide coverage</t>
+  </si>
+  <si>
+    <t>Reference to the network that providing the type of coverage.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit</t>
+  </si>
+  <si>
+    <t>List of benefits</t>
+  </si>
+  <si>
+    <t>Specific benefits under this type of coverage.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.id</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.extension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.modifierExtension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.type</t>
+  </si>
+  <si>
+    <t>Type of benefit</t>
+  </si>
+  <si>
+    <t>Type of benefit (primary care; speciality care; inpatient; outpatient).</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.requirement</t>
+  </si>
+  <si>
+    <t>Referral requirements</t>
+  </si>
+  <si>
+    <t>The referral requirements to have access/coverage for this benefit.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.limit</t>
+  </si>
+  <si>
+    <t>Benefit limits</t>
+  </si>
+  <si>
+    <t>The specific limits on the benefit.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.limit.id</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.limit.extension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.limit.modifierExtension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.limit.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
 </t>
   </si>
   <si>
-    <t>./scheme</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.telecom.value</t>
-  </si>
-  <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.telecom.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>Use of contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.telecom.rank</t>
+    <t>Maximum value allowed</t>
+  </si>
+  <si>
+    <t>The maximum amount of a service item a plan will pay for a covered benefit.  For examples. wellness visits, or eyeglasses.</t>
+  </si>
+  <si>
+    <t>May also be called “eligible expense,” “payment allowance,” or “negotiated rate.”.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.limit.code</t>
+  </si>
+  <si>
+    <t>Benefit limit details</t>
+  </si>
+  <si>
+    <t>The specific limit on the benefit.</t>
+  </si>
+  <si>
+    <t>Use `CodeableConcept.text` element if the data is free (uncoded) text.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan</t>
+  </si>
+  <si>
+    <t>Plan details</t>
+  </si>
+  <si>
+    <t>Details about an insurance plan.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.id</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.extension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.modifierExtension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.identifier</t>
+  </si>
+  <si>
+    <t>Business identifiers assigned to this health insurance plan which remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.type</t>
+  </si>
+  <si>
+    <t>Type of plan</t>
+  </si>
+  <si>
+    <t>Type of plan. For example, "Platinum" or "High Deductable".</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.coverageArea</t>
+  </si>
+  <si>
+    <t>The geographic region in which a health insurance plan's benefits apply.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.network</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.generalCost</t>
+  </si>
+  <si>
+    <t>Overall costs</t>
+  </si>
+  <si>
+    <t>Overall costs associated with the plan.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.generalCost.id</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.generalCost.extension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.generalCost.modifierExtension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.generalCost.type</t>
+  </si>
+  <si>
+    <t>Type of cost</t>
+  </si>
+  <si>
+    <t>Type of cost.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.generalCost.groupSize</t>
   </si>
   <si>
     <t xml:space="preserve">positiveInt
 </t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.telecom.period</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
-  </si>
-  <si>
-    <t>ContactPoint.period</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address
-</t>
-  </si>
-  <si>
-    <t>Visiting or postal addresses for the contact</t>
-  </si>
-  <si>
-    <t>Visiting or postal addresses for the contact.</t>
-  </si>
-  <si>
-    <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
-  </si>
-  <si>
-    <t>./addr</t>
-  </si>
-  <si>
-    <t>InsurancePlan.endpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-Endpoint)
-</t>
-  </si>
-  <si>
-    <t>Technical endpoint</t>
-  </si>
-  <si>
-    <t>The technical endpoints providing access to services operated for the health insurance product.</t>
-  </si>
-  <si>
-    <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-Network)
-</t>
-  </si>
-  <si>
-    <t>What networks are Included</t>
-  </si>
-  <si>
-    <t>Reference to the network included in the health insurance product.</t>
-  </si>
-  <si>
-    <t>Networks are represented as a hierarchy of organization resources.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage</t>
-  </si>
-  <si>
-    <t>Coverage details</t>
-  </si>
-  <si>
-    <t>Details about the coverage offered by the insurance product.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.id</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.extension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.modifierExtension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.type</t>
-  </si>
-  <si>
-    <t>Type of coverage</t>
-  </si>
-  <si>
-    <t>Type of coverage  (Medical; Dental; Mental Health; Substance Abuse; Vision; Drug; Short Term; Long Term Care; Hospice; Home Health).</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.network</t>
-  </si>
-  <si>
-    <t>What networks provide coverage</t>
-  </si>
-  <si>
-    <t>Reference to the network that providing the type of coverage.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit</t>
-  </si>
-  <si>
-    <t>List of benefits</t>
-  </si>
-  <si>
-    <t>Specific benefits under this type of coverage.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.id</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.extension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.modifierExtension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.type</t>
-  </si>
-  <si>
-    <t>Type of benefit</t>
-  </si>
-  <si>
-    <t>Type of benefit (primary care; speciality care; inpatient; outpatient).</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.requirement</t>
-  </si>
-  <si>
-    <t>Referral requirements</t>
-  </si>
-  <si>
-    <t>The referral requirements to have access/coverage for this benefit.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.limit</t>
-  </si>
-  <si>
-    <t>Benefit limits</t>
-  </si>
-  <si>
-    <t>The specific limits on the benefit.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.limit.id</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.limit.extension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.limit.modifierExtension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.limit.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
-</t>
-  </si>
-  <si>
-    <t>Maximum value allowed</t>
-  </si>
-  <si>
-    <t>The maximum amount of a service item a plan will pay for a covered benefit.  For examples. wellness visits, or eyeglasses.</t>
-  </si>
-  <si>
-    <t>May also be called “eligible expense,” “payment allowance,” or “negotiated rate.”.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.limit.code</t>
-  </si>
-  <si>
-    <t>Benefit limit details</t>
-  </si>
-  <si>
-    <t>The specific limit on the benefit.</t>
-  </si>
-  <si>
-    <t>Use `CodeableConcept.text` element if the data is free (uncoded) text.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan</t>
-  </si>
-  <si>
-    <t>Plan details</t>
-  </si>
-  <si>
-    <t>Details about an insurance plan.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.id</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.extension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.modifierExtension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.identifier</t>
-  </si>
-  <si>
-    <t>Business identifiers assigned to this health insurance plan which remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.type</t>
-  </si>
-  <si>
-    <t>Type of plan</t>
-  </si>
-  <si>
-    <t>Type of plan. For example, "Platinum" or "High Deductable".</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.coverageArea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
-</t>
-  </si>
-  <si>
-    <t>The geographic region in which a health insurance plan's benefits apply.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.network</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.generalCost</t>
-  </si>
-  <si>
-    <t>Overall costs</t>
-  </si>
-  <si>
-    <t>Overall costs associated with the plan.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.generalCost.id</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.generalCost.extension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.generalCost.modifierExtension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.generalCost.type</t>
-  </si>
-  <si>
-    <t>Type of cost</t>
-  </si>
-  <si>
-    <t>Type of cost.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.generalCost.groupSize</t>
   </si>
   <si>
     <t>Number of enrollees</t>
@@ -1587,7 +1303,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK107"/>
+  <dimension ref="A1:AK89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1597,7 +1313,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="59.59375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.62109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="40.90625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -3683,7 +3399,7 @@
         <v>38</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>38</v>
@@ -3701,10 +3417,10 @@
         <v>126</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>38</v>
@@ -3737,15 +3453,15 @@
         <v>58</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3756,10 +3472,10 @@
         <v>39</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -3771,10 +3487,10 @@
         <v>132</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3801,13 +3517,13 @@
         <v>38</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>38</v>
@@ -3825,7 +3541,7 @@
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>39</v>
@@ -3840,15 +3556,15 @@
         <v>58</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3862,7 +3578,7 @@
         <v>46</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -3874,13 +3590,13 @@
         <v>48</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3930,7 +3646,7 @@
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>39</v>
@@ -3948,12 +3664,12 @@
         <v>38</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3967,7 +3683,7 @@
         <v>40</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -3979,16 +3695,16 @@
         <v>48</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>38</v>
@@ -4037,7 +3753,7 @@
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
@@ -4055,12 +3771,12 @@
         <v>38</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4086,10 +3802,10 @@
         <v>157</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4140,7 +3856,7 @@
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -4161,23 +3877,23 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -4186,7 +3902,7 @@
         <v>47</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>202</v>
@@ -4243,7 +3959,7 @@
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -4264,7 +3980,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>204</v>
       </c>
@@ -4274,13 +3990,13 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -4289,7 +4005,7 @@
         <v>47</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>205</v>
@@ -4367,7 +4083,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>207</v>
       </c>
@@ -4383,7 +4099,7 @@
         <v>40</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -4470,7 +4186,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>211</v>
       </c>
@@ -4486,7 +4202,7 @@
         <v>40</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4997,7 +4713,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>232</v>
       </c>
@@ -5013,7 +4729,7 @@
         <v>46</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -5115,7 +4831,7 @@
         <v>39</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>38</v>
@@ -5127,16 +4843,18 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>48</v>
+        <v>239</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>111</v>
+        <v>240</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>112</v>
+        <v>241</v>
       </c>
       <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>38</v>
       </c>
@@ -5184,41 +4902,41 @@
         <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>113</v>
+        <v>238</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>114</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>38</v>
@@ -5230,18 +4948,18 @@
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>245</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>93</v>
+        <v>246</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>38</v>
       </c>
@@ -5277,42 +4995,42 @@
         <v>38</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>120</v>
+        <v>244</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>114</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5323,31 +5041,29 @@
         <v>39</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>66</v>
+        <v>251</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>38</v>
@@ -5372,13 +5088,13 @@
         <v>38</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>245</v>
+        <v>38</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>246</v>
+        <v>38</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>38</v>
@@ -5396,13 +5112,13 @@
         <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>38</v>
@@ -5414,12 +5130,12 @@
         <v>38</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>248</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5430,32 +5146,30 @@
         <v>39</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>38</v>
       </c>
@@ -5503,13 +5217,13 @@
         <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>38</v>
@@ -5521,45 +5235,43 @@
         <v>38</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>255</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>257</v>
+        <v>38</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>38</v>
@@ -5608,13 +5320,13 @@
         <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>38</v>
@@ -5626,45 +5338,43 @@
         <v>38</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
         <v>262</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>264</v>
+        <v>38</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>48</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>265</v>
+        <v>111</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>38</v>
@@ -5713,34 +5423,34 @@
         <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>268</v>
+        <v>113</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>269</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5750,24 +5460,26 @@
         <v>40</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>271</v>
+        <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>38</v>
@@ -5816,7 +5528,7 @@
         <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>273</v>
+        <v>120</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>39</v>
@@ -5828,22 +5540,22 @@
         <v>38</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>274</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5853,25 +5565,29 @@
         <v>40</v>
       </c>
       <c r="G41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H41" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>47</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>38</v>
       </c>
@@ -5919,7 +5635,7 @@
         <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>39</v>
@@ -5931,18 +5647,18 @@
         <v>38</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>279</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5950,33 +5666,31 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" t="s" s="2">
-        <v>283</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>38</v>
       </c>
@@ -6024,10 +5738,10 @@
         <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>46</v>
@@ -6042,12 +5756,12 @@
         <v>38</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>285</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6061,7 +5775,7 @@
         <v>40</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>38</v>
@@ -6070,18 +5784,18 @@
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>287</v>
+        <v>163</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>38</v>
       </c>
@@ -6129,7 +5843,7 @@
         <v>38</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>39</v>
@@ -6147,12 +5861,12 @@
         <v>38</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>291</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6160,10 +5874,10 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>38</v>
@@ -6175,13 +5889,13 @@
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>111</v>
+        <v>272</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>112</v>
+        <v>273</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6232,41 +5946,41 @@
         <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>113</v>
+        <v>271</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>38</v>
@@ -6278,17 +5992,15 @@
         <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>38</v>
@@ -6325,31 +6037,31 @@
         <v>38</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>38</v>
@@ -6358,15 +6070,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6376,7 +6086,7 @@
         <v>40</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -6385,15 +6095,17 @@
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>295</v>
+        <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>296</v>
+        <v>93</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>38</v>
@@ -6460,18 +6172,16 @@
         <v>38</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6481,25 +6191,29 @@
         <v>40</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H47" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="I47" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>299</v>
+        <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>38</v>
       </c>
@@ -6547,7 +6261,7 @@
         <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>120</v>
+        <v>224</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>39</v>
@@ -6568,9 +6282,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6578,28 +6292,28 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6626,13 +6340,13 @@
         <v>38</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>305</v>
+        <v>38</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>306</v>
+        <v>38</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>38</v>
@@ -6650,16 +6364,16 @@
         <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>308</v>
+        <v>38</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>58</v>
@@ -6668,12 +6382,12 @@
         <v>38</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>309</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6687,29 +6401,25 @@
         <v>46</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>48</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>38</v>
       </c>
@@ -6757,7 +6467,7 @@
         <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>39</v>
@@ -6775,12 +6485,12 @@
         <v>38</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>316</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6791,32 +6501,28 @@
         <v>39</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>66</v>
+        <v>212</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>38</v>
       </c>
@@ -6840,13 +6546,13 @@
         <v>38</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>322</v>
+        <v>38</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>323</v>
+        <v>38</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>38</v>
@@ -6864,13 +6570,13 @@
         <v>38</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>38</v>
@@ -6882,12 +6588,12 @@
         <v>38</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>248</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6907,20 +6613,18 @@
         <v>38</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>326</v>
+        <v>48</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>327</v>
+        <v>111</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>38</v>
@@ -6969,7 +6673,7 @@
         <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>330</v>
+        <v>113</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>39</v>
@@ -6981,7 +6685,7 @@
         <v>38</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>38</v>
@@ -6990,40 +6694,42 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>332</v>
+        <v>93</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>38</v>
@@ -7072,63 +6778,65 @@
         <v>38</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>334</v>
+        <v>120</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>285</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>336</v>
+        <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>337</v>
+        <v>222</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="N53" t="s" s="2">
-        <v>339</v>
+        <v>101</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>38</v>
@@ -7177,30 +6885,30 @@
         <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>335</v>
+        <v>224</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>340</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>341</v>
+        <v>289</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7211,7 +6919,7 @@
         <v>39</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>38</v>
@@ -7223,18 +6931,18 @@
         <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>342</v>
+        <v>290</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>343</v>
+        <v>291</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>38</v>
       </c>
@@ -7282,13 +6990,13 @@
         <v>38</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>341</v>
+        <v>289</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>38</v>
@@ -7300,12 +7008,12 @@
         <v>38</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7316,7 +7024,7 @@
         <v>39</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>38</v>
@@ -7328,16 +7036,16 @@
         <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>347</v>
+        <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>348</v>
+        <v>295</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>350</v>
+        <v>297</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7387,13 +7095,13 @@
         <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>38</v>
@@ -7410,7 +7118,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7436,10 +7144,10 @@
         <v>212</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>352</v>
+        <v>299</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7490,7 +7198,7 @@
         <v>38</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>39</v>
@@ -7513,7 +7221,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>354</v>
+        <v>301</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7616,7 +7324,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7721,7 +7429,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>356</v>
+        <v>303</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7828,7 +7536,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7836,10 +7544,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>38</v>
@@ -7848,16 +7556,16 @@
         <v>38</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>358</v>
+        <v>105</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>359</v>
+        <v>305</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7908,13 +7616,13 @@
         <v>38</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>38</v>
@@ -7923,15 +7631,15 @@
         <v>58</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>38</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7942,7 +7650,7 @@
         <v>39</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>38</v>
@@ -7954,17 +7662,15 @@
         <v>38</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>38</v>
@@ -8013,13 +7719,13 @@
         <v>38</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>38</v>
@@ -8036,7 +7742,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8044,7 +7750,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>40</v>
@@ -8056,16 +7762,16 @@
         <v>38</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>364</v>
+        <v>209</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>365</v>
+        <v>310</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8116,10 +7822,10 @@
         <v>38</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>40</v>
@@ -8139,7 +7845,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>366</v>
+        <v>311</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8150,7 +7856,7 @@
         <v>39</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>38</v>
@@ -8162,15 +7868,17 @@
         <v>38</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>111</v>
+        <v>269</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>38</v>
@@ -8219,34 +7927,34 @@
         <v>38</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>113</v>
+        <v>311</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8265,17 +7973,15 @@
         <v>38</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>93</v>
+        <v>313</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>38</v>
@@ -8324,7 +8030,7 @@
         <v>38</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>120</v>
+        <v>312</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>39</v>
@@ -8336,54 +8042,50 @@
         <v>38</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>38</v>
       </c>
@@ -8431,41 +8133,41 @@
         <v>38</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>224</v>
+        <v>113</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>38</v>
@@ -8477,15 +8179,17 @@
         <v>38</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>370</v>
+        <v>93</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>38</v>
@@ -8534,62 +8238,66 @@
         <v>38</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>369</v>
+        <v>120</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>372</v>
+        <v>317</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>373</v>
+        <v>222</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>38</v>
       </c>
@@ -8637,30 +8345,30 @@
         <v>38</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>372</v>
+        <v>224</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8671,7 +8379,7 @@
         <v>39</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>38</v>
@@ -8683,13 +8391,13 @@
         <v>38</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>376</v>
+        <v>319</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>377</v>
+        <v>320</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8740,13 +8448,13 @@
         <v>38</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>38</v>
@@ -8763,7 +8471,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>378</v>
+        <v>321</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8786,13 +8494,13 @@
         <v>38</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>48</v>
+        <v>322</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>111</v>
+        <v>323</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>112</v>
+        <v>324</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8843,7 +8551,7 @@
         <v>38</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>113</v>
+        <v>321</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>39</v>
@@ -8855,29 +8563,29 @@
         <v>38</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>379</v>
+        <v>325</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>38</v>
@@ -8889,17 +8597,15 @@
         <v>38</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>92</v>
+        <v>326</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>93</v>
+        <v>327</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>38</v>
@@ -8948,66 +8654,62 @@
         <v>38</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>120</v>
+        <v>325</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>222</v>
+        <v>330</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>38</v>
       </c>
@@ -9055,30 +8757,30 @@
         <v>38</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>224</v>
+        <v>329</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9089,7 +8791,7 @@
         <v>39</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>38</v>
@@ -9101,17 +8803,15 @@
         <v>38</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>382</v>
+        <v>212</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>38</v>
@@ -9160,13 +8860,13 @@
         <v>38</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>38</v>
@@ -9183,7 +8883,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9206,17 +8906,15 @@
         <v>38</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>387</v>
+        <v>111</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>38</v>
@@ -9265,7 +8963,7 @@
         <v>38</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>386</v>
+        <v>113</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>39</v>
@@ -9277,22 +8975,22 @@
         <v>38</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>390</v>
+        <v>336</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9311,15 +9009,17 @@
         <v>38</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>212</v>
+        <v>92</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>391</v>
+        <v>93</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>38</v>
@@ -9368,7 +9068,7 @@
         <v>38</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>390</v>
+        <v>120</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>39</v>
@@ -9380,50 +9080,54 @@
         <v>38</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>393</v>
+        <v>337</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>38</v>
       </c>
@@ -9471,41 +9175,41 @@
         <v>38</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>113</v>
+        <v>224</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>38</v>
@@ -9517,17 +9221,15 @@
         <v>38</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>93</v>
+        <v>339</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>38</v>
@@ -9576,34 +9278,34 @@
         <v>38</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>120</v>
+        <v>338</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>395</v>
+        <v>341</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -9616,26 +9318,22 @@
         <v>38</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>222</v>
+        <v>342</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>38</v>
       </c>
@@ -9683,7 +9381,7 @@
         <v>38</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>224</v>
+        <v>341</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>39</v>
@@ -9695,18 +9393,18 @@
         <v>38</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>396</v>
+        <v>344</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9717,7 +9415,7 @@
         <v>39</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>38</v>
@@ -9726,16 +9424,16 @@
         <v>38</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>397</v>
+        <v>112</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9786,41 +9484,41 @@
         <v>38</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>396</v>
+        <v>113</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>38</v>
@@ -9832,15 +9530,17 @@
         <v>38</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>399</v>
+        <v>93</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>38</v>
@@ -9889,34 +9589,34 @@
         <v>38</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>398</v>
+        <v>120</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>401</v>
+        <v>346</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -9929,22 +9629,26 @@
         <v>38</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>47</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>402</v>
+        <v>92</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>38</v>
       </c>
@@ -9992,7 +9696,7 @@
         <v>38</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>401</v>
+        <v>224</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>39</v>
@@ -10004,18 +9708,18 @@
         <v>38</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10023,10 +9727,10 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>38</v>
@@ -10038,17 +9742,15 @@
         <v>38</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>38</v>
@@ -10097,13 +9799,13 @@
         <v>38</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>38</v>
@@ -10120,7 +9822,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>405</v>
+        <v>350</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10146,10 +9848,10 @@
         <v>212</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>406</v>
+        <v>351</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>407</v>
+        <v>352</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10200,7 +9902,7 @@
         <v>38</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>405</v>
+        <v>350</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>39</v>
@@ -10223,7 +9925,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>408</v>
+        <v>353</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10326,7 +10028,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>409</v>
+        <v>354</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10431,7 +10133,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>410</v>
+        <v>355</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10538,7 +10240,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>411</v>
+        <v>356</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10546,7 +10248,7 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>46</v>
@@ -10564,10 +10266,10 @@
         <v>132</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>412</v>
+        <v>319</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>413</v>
+        <v>357</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10618,10 +10320,10 @@
         <v>38</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>411</v>
+        <v>356</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>46</v>
@@ -10641,7 +10343,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>414</v>
+        <v>358</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10664,13 +10366,13 @@
         <v>38</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>326</v>
+        <v>132</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>415</v>
+        <v>359</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>416</v>
+        <v>360</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -10697,13 +10399,13 @@
         <v>38</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>38</v>
+        <v>361</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>38</v>
+        <v>362</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>38</v>
@@ -10721,7 +10423,7 @@
         <v>38</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>414</v>
+        <v>358</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>39</v>
@@ -10744,7 +10446,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>417</v>
+        <v>363</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10755,7 +10457,7 @@
         <v>39</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>38</v>
@@ -10767,13 +10469,13 @@
         <v>38</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>418</v>
+        <v>132</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>419</v>
+        <v>364</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>420</v>
+        <v>365</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -10824,13 +10526,13 @@
         <v>38</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>417</v>
+        <v>363</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>38</v>
@@ -10847,7 +10549,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>421</v>
+        <v>366</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -10870,13 +10572,13 @@
         <v>38</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>48</v>
+        <v>290</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>422</v>
+        <v>367</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>423</v>
+        <v>368</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -10927,7 +10629,7 @@
         <v>38</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>421</v>
+        <v>366</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>39</v>
@@ -10948,1880 +10650,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AK107">
+  <autoFilter ref="A1:AK89">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12831,7 +10661,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI106">
+  <conditionalFormatting sqref="A2:AI88">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/build/temp/pages/StructureDefinition-plannet-InsurancePlan.xlsx
+++ b/build/temp/pages/StructureDefinition-plannet-InsurancePlan.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$107</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2914" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3506" uniqueCount="462">
   <si>
     <t>Path</t>
   </si>
@@ -645,6 +645,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-Organization)
+</t>
+  </si>
+  <si>
     <t>Plan issuer</t>
   </si>
   <si>
@@ -661,323 +665,610 @@
   </si>
   <si>
     <t>InsurancePlan.coverageArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-Location)
+</t>
+  </si>
+  <si>
+    <t>Where product applies</t>
+  </si>
+  <si>
+    <t>The geographic region in which a health insurance product's benefits apply.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Contact for the product</t>
+  </si>
+  <si>
+    <t>The contact for the health insurance product for a certain purpose.</t>
+  </si>
+  <si>
+    <t>Where multiple contacts for the same purpose are provided there is a standard extension that can be used to determine which one is the preferred contact to use.</t>
+  </si>
+  <si>
+    <t>Need to keep track of assigned contact points within bigger organization.</t>
+  </si>
+  <si>
+    <t>.contactParty</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.id</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.extension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.purpose</t>
+  </si>
+  <si>
+    <t>The type of contact</t>
+  </si>
+  <si>
+    <t>Indicates a purpose for which the contact can be reached.</t>
+  </si>
+  <si>
+    <t>Need to distinguish between multiple contact persons.</t>
+  </si>
+  <si>
+    <t>The purpose for which you would contact a contact party.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+  </si>
+  <si>
+    <t>./type</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HumanName
+</t>
+  </si>
+  <si>
+    <t>A name associated with the contact</t>
+  </si>
+  <si>
+    <t>A name associated with the contact.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the person by name.</t>
+  </si>
+  <si>
+    <t>./name</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.name.id</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.name.extension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.name.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this name.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>The use of a human name.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
+  </si>
+  <si>
+    <t>HumanName.use</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.name.text</t>
+  </si>
+  <si>
+    <t>Text representation of the full name</t>
+  </si>
+  <si>
+    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>HumanName.text</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.name.family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surname
+</t>
+  </si>
+  <si>
+    <t>Family name (often called 'Surname')</t>
+  </si>
+  <si>
+    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
+  </si>
+  <si>
+    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
+  </si>
+  <si>
+    <t>HumanName.family</t>
+  </si>
+  <si>
+    <t>./part[partType = FAM]</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.name.given</t>
+  </si>
+  <si>
+    <t>first name
+middle name</t>
+  </si>
+  <si>
+    <t>Given names (not always 'first'). Includes middle names</t>
+  </si>
+  <si>
+    <t>Given name.</t>
+  </si>
+  <si>
+    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
+  </si>
+  <si>
+    <t>HumanName.given</t>
+  </si>
+  <si>
+    <t>./part[partType = GIV]</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.name.prefix</t>
+  </si>
+  <si>
+    <t>Parts that come before the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.prefix</t>
+  </si>
+  <si>
+    <t>./part[partType = PFX]</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.name.suffix</t>
+  </si>
+  <si>
+    <t>Parts that come after the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.suffix</t>
+  </si>
+  <si>
+    <t>./part[partType = SFX]</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.name.period</t>
+  </si>
+  <si>
+    <t>Time period when name was/is in use</t>
+  </si>
+  <si>
+    <t>Indicates the period of time when this name was valid for the named person.</t>
+  </si>
+  <si>
+    <t>Allows names to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>HumanName.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
+</t>
+  </si>
+  <si>
+    <t>Contact details (telephone, email, etc.)  for a contact</t>
+  </si>
+  <si>
+    <t>A contact detail (e.g. a telephone number or an email address) by which the party may be contacted.</t>
+  </si>
+  <si>
+    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
+  </si>
+  <si>
+    <t>./telecom</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.telecom.id</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.telecom.extension</t>
+  </si>
+  <si>
+    <t>contactpoint-availabletime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/vhdir/StructureDefinition/contactpoint-availabletime}
+</t>
+  </si>
+  <si>
+    <t>Available time</t>
+  </si>
+  <si>
+    <t>Time period when the contact point is to be used</t>
+  </si>
+  <si>
+    <t>via-intermediary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/via-intermediary}
+</t>
+  </si>
+  <si>
+    <t>Via Intermediary</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.telecom.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpt-2
+</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.telecom.value</t>
+  </si>
+  <si>
+    <t>The actual contact point details</t>
+  </si>
+  <si>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+  </si>
+  <si>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.telecom.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>Use of contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.telecom.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+  </si>
+  <si>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.telecom.period</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use.</t>
+  </si>
+  <si>
+    <t>ContactPoint.period</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address
+</t>
+  </si>
+  <si>
+    <t>Visiting or postal addresses for the contact</t>
+  </si>
+  <si>
+    <t>Visiting or postal addresses for the contact.</t>
+  </si>
+  <si>
+    <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
+  </si>
+  <si>
+    <t>./addr</t>
+  </si>
+  <si>
+    <t>InsurancePlan.endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-Endpoint)
+</t>
+  </si>
+  <si>
+    <t>Technical endpoint</t>
+  </si>
+  <si>
+    <t>The technical endpoints providing access to services operated for the health insurance product.</t>
+  </si>
+  <si>
+    <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-Network)
+</t>
+  </si>
+  <si>
+    <t>What networks are Included</t>
+  </si>
+  <si>
+    <t>Reference to the network included in the health insurance product.</t>
+  </si>
+  <si>
+    <t>Networks are represented as a hierarchy of organization resources.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage</t>
+  </si>
+  <si>
+    <t>Coverage details</t>
+  </si>
+  <si>
+    <t>Details about the coverage offered by the insurance product.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.id</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.extension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.modifierExtension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.type</t>
+  </si>
+  <si>
+    <t>Type of coverage</t>
+  </si>
+  <si>
+    <t>Type of coverage  (Medical; Dental; Mental Health; Substance Abuse; Vision; Drug; Short Term; Long Term Care; Hospice; Home Health).</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.network</t>
+  </si>
+  <si>
+    <t>What networks provide coverage</t>
+  </si>
+  <si>
+    <t>Reference to the network that providing the type of coverage.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit</t>
+  </si>
+  <si>
+    <t>List of benefits</t>
+  </si>
+  <si>
+    <t>Specific benefits under this type of coverage.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.id</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.extension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.modifierExtension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.type</t>
+  </si>
+  <si>
+    <t>Type of benefit</t>
+  </si>
+  <si>
+    <t>Type of benefit (primary care; speciality care; inpatient; outpatient).</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.requirement</t>
+  </si>
+  <si>
+    <t>Referral requirements</t>
+  </si>
+  <si>
+    <t>The referral requirements to have access/coverage for this benefit.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.limit</t>
+  </si>
+  <si>
+    <t>Benefit limits</t>
+  </si>
+  <si>
+    <t>The specific limits on the benefit.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.limit.id</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.limit.extension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.limit.modifierExtension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.limit.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>Maximum value allowed</t>
+  </si>
+  <si>
+    <t>The maximum amount of a service item a plan will pay for a covered benefit.  For examples. wellness visits, or eyeglasses.</t>
+  </si>
+  <si>
+    <t>May also be called “eligible expense,” “payment allowance,” or “negotiated rate.”.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.limit.code</t>
+  </si>
+  <si>
+    <t>Benefit limit details</t>
+  </si>
+  <si>
+    <t>The specific limit on the benefit.</t>
+  </si>
+  <si>
+    <t>Use `CodeableConcept.text` element if the data is free (uncoded) text.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan</t>
+  </si>
+  <si>
+    <t>Plan details</t>
+  </si>
+  <si>
+    <t>Details about an insurance plan.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.id</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.extension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.modifierExtension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.identifier</t>
+  </si>
+  <si>
+    <t>Business identifiers assigned to this health insurance plan which remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.type</t>
+  </si>
+  <si>
+    <t>Type of plan</t>
+  </si>
+  <si>
+    <t>Type of plan. For example, "Platinum" or "High Deductable".</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.coverageArea</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Location)
 </t>
   </si>
   <si>
-    <t>Where product applies</t>
-  </si>
-  <si>
-    <t>The geographic region in which a health insurance product's benefits apply.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Contact for the product</t>
-  </si>
-  <si>
-    <t>The contact for the health insurance product for a certain purpose.</t>
-  </si>
-  <si>
-    <t>Where multiple contacts for the same purpose are provided there is a standard extension that can be used to determine which one is the preferred contact to use.</t>
-  </si>
-  <si>
-    <t>Need to keep track of assigned contact points within bigger organization.</t>
-  </si>
-  <si>
-    <t>.contactParty</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.id</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.extension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.purpose</t>
-  </si>
-  <si>
-    <t>The type of contact</t>
-  </si>
-  <si>
-    <t>Indicates a purpose for which the contact can be reached.</t>
-  </si>
-  <si>
-    <t>Need to distinguish between multiple contact persons.</t>
-  </si>
-  <si>
-    <t>The purpose for which you would contact a contact party.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
-  </si>
-  <si>
-    <t>./type</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanName
-</t>
-  </si>
-  <si>
-    <t>A name associated with the contact</t>
-  </si>
-  <si>
-    <t>A name associated with the contact.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the person by name.</t>
-  </si>
-  <si>
-    <t>./name</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint
-</t>
-  </si>
-  <si>
-    <t>Contact details (telephone, email, etc.)  for a contact</t>
-  </si>
-  <si>
-    <t>A contact detail (e.g. a telephone number or an email address) by which the party may be contacted.</t>
-  </si>
-  <si>
-    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
-  </si>
-  <si>
-    <t>./telecom</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address
-</t>
-  </si>
-  <si>
-    <t>Visiting or postal addresses for the contact</t>
-  </si>
-  <si>
-    <t>Visiting or postal addresses for the contact.</t>
-  </si>
-  <si>
-    <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
-  </si>
-  <si>
-    <t>./addr</t>
-  </si>
-  <si>
-    <t>InsurancePlan.endpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Endpoint)
-</t>
-  </si>
-  <si>
-    <t>Technical endpoint</t>
-  </si>
-  <si>
-    <t>The technical endpoints providing access to services operated for the health insurance product.</t>
-  </si>
-  <si>
-    <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.network</t>
-  </si>
-  <si>
-    <t>What networks are Included</t>
-  </si>
-  <si>
-    <t>Reference to the network included in the health insurance product.</t>
-  </si>
-  <si>
-    <t>Networks are represented as a hierarchy of organization resources.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage</t>
-  </si>
-  <si>
-    <t>Coverage details</t>
-  </si>
-  <si>
-    <t>Details about the coverage offered by the insurance product.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.id</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.extension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.modifierExtension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.type</t>
-  </si>
-  <si>
-    <t>Type of coverage</t>
-  </si>
-  <si>
-    <t>Type of coverage  (Medical; Dental; Mental Health; Substance Abuse; Vision; Drug; Short Term; Long Term Care; Hospice; Home Health).</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.network</t>
-  </si>
-  <si>
-    <t>What networks provide coverage</t>
-  </si>
-  <si>
-    <t>Reference to the network that providing the type of coverage.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit</t>
-  </si>
-  <si>
-    <t>List of benefits</t>
-  </si>
-  <si>
-    <t>Specific benefits under this type of coverage.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.id</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.extension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.modifierExtension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.type</t>
-  </si>
-  <si>
-    <t>Type of benefit</t>
-  </si>
-  <si>
-    <t>Type of benefit (primary care; speciality care; inpatient; outpatient).</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.requirement</t>
-  </si>
-  <si>
-    <t>Referral requirements</t>
-  </si>
-  <si>
-    <t>The referral requirements to have access/coverage for this benefit.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.limit</t>
-  </si>
-  <si>
-    <t>Benefit limits</t>
-  </si>
-  <si>
-    <t>The specific limits on the benefit.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.limit.id</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.limit.extension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.limit.modifierExtension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.limit.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
-</t>
-  </si>
-  <si>
-    <t>Maximum value allowed</t>
-  </si>
-  <si>
-    <t>The maximum amount of a service item a plan will pay for a covered benefit.  For examples. wellness visits, or eyeglasses.</t>
-  </si>
-  <si>
-    <t>May also be called “eligible expense,” “payment allowance,” or “negotiated rate.”.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.limit.code</t>
-  </si>
-  <si>
-    <t>Benefit limit details</t>
-  </si>
-  <si>
-    <t>The specific limit on the benefit.</t>
-  </si>
-  <si>
-    <t>Use `CodeableConcept.text` element if the data is free (uncoded) text.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan</t>
-  </si>
-  <si>
-    <t>Plan details</t>
-  </si>
-  <si>
-    <t>Details about an insurance plan.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.id</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.extension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.modifierExtension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.identifier</t>
-  </si>
-  <si>
-    <t>Business identifiers assigned to this health insurance plan which remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.type</t>
-  </si>
-  <si>
-    <t>Type of plan</t>
-  </si>
-  <si>
-    <t>Type of plan. For example, "Platinum" or "High Deductable".</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.coverageArea</t>
-  </si>
-  <si>
     <t>The geographic region in which a health insurance plan's benefits apply.</t>
   </si>
   <si>
@@ -1012,10 +1303,6 @@
   </si>
   <si>
     <t>InsurancePlan.plan.generalCost.groupSize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
   </si>
   <si>
     <t>Number of enrollees</t>
@@ -1303,7 +1590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK89"/>
+  <dimension ref="A1:AK107"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1313,7 +1600,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="59.59375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.62109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="40.90625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -3396,10 +3683,10 @@
         <v>173</v>
       </c>
       <c r="Q20" t="s" s="2">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>38</v>
@@ -3459,7 +3746,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>179</v>
       </c>
@@ -3472,10 +3759,10 @@
         <v>39</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -3562,7 +3849,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>187</v>
       </c>
@@ -3578,7 +3865,7 @@
         <v>46</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -3667,7 +3954,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>192</v>
       </c>
@@ -3683,7 +3970,7 @@
         <v>40</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -3877,7 +4164,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>200</v>
       </c>
@@ -3887,13 +4174,13 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -3902,13 +4189,13 @@
         <v>47</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3980,9 +4267,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3990,13 +4277,13 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -4005,13 +4292,13 @@
         <v>47</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4062,7 +4349,7 @@
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -4083,9 +4370,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4099,7 +4386,7 @@
         <v>40</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -4108,13 +4395,13 @@
         <v>47</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4165,7 +4452,7 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
@@ -4186,9 +4473,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4202,7 +4489,7 @@
         <v>40</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4211,19 +4498,19 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>38</v>
@@ -4272,7 +4559,7 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -4290,12 +4577,12 @@
         <v>38</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4398,7 +4685,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4503,11 +4790,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4529,10 +4816,10 @@
         <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>95</v>
@@ -4587,7 +4874,7 @@
         <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
@@ -4610,7 +4897,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4636,14 +4923,14 @@
         <v>132</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>38</v>
@@ -4671,10 +4958,10 @@
         <v>137</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>38</v>
@@ -4692,7 +4979,7 @@
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>39</v>
@@ -4710,12 +4997,12 @@
         <v>38</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4729,7 +5016,7 @@
         <v>46</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -4738,17 +5025,17 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>38</v>
@@ -4797,7 +5084,7 @@
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>39</v>
@@ -4815,12 +5102,12 @@
         <v>38</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4831,7 +5118,7 @@
         <v>39</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>38</v>
@@ -4843,18 +5130,16 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>239</v>
+        <v>48</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>240</v>
+        <v>111</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>241</v>
+        <v>112</v>
       </c>
       <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
-        <v>242</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>38</v>
       </c>
@@ -4902,41 +5187,41 @@
         <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>238</v>
+        <v>113</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>243</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>38</v>
@@ -4948,18 +5233,18 @@
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>245</v>
+        <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>246</v>
+        <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>38</v>
       </c>
@@ -4995,42 +5280,42 @@
         <v>38</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>244</v>
+        <v>120</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>249</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5041,29 +5326,31 @@
         <v>39</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>251</v>
+        <v>66</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="N36" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>38</v>
@@ -5088,13 +5375,13 @@
         <v>38</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>38</v>
+        <v>247</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>38</v>
@@ -5112,13 +5399,13 @@
         <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>38</v>
@@ -5130,12 +5417,12 @@
         <v>38</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>114</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5146,30 +5433,32 @@
         <v>39</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>38</v>
       </c>
@@ -5223,7 +5512,7 @@
         <v>39</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>38</v>
@@ -5235,43 +5524,45 @@
         <v>38</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>38</v>
+        <v>256</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>212</v>
+        <v>48</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>38</v>
@@ -5320,13 +5611,13 @@
         <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>38</v>
@@ -5338,43 +5629,45 @@
         <v>38</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>38</v>
+        <v>263</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>48</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>111</v>
+        <v>266</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>38</v>
@@ -5423,34 +5716,34 @@
         <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>113</v>
+        <v>269</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>114</v>
+        <v>270</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5460,26 +5753,24 @@
         <v>40</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>93</v>
+        <v>272</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>38</v>
@@ -5528,7 +5819,7 @@
         <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>120</v>
+        <v>274</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>39</v>
@@ -5540,22 +5831,22 @@
         <v>38</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>114</v>
+        <v>275</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5565,29 +5856,25 @@
         <v>40</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>47</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>38</v>
       </c>
@@ -5635,7 +5922,7 @@
         <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>224</v>
+        <v>279</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>39</v>
@@ -5647,18 +5934,18 @@
         <v>38</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>89</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5666,31 +5953,33 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>38</v>
       </c>
@@ -5738,10 +6027,10 @@
         <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>46</v>
@@ -5756,12 +6045,12 @@
         <v>38</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>38</v>
+        <v>286</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5775,7 +6064,7 @@
         <v>40</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>38</v>
@@ -5784,18 +6073,18 @@
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>163</v>
+        <v>288</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>38</v>
       </c>
@@ -5843,7 +6132,7 @@
         <v>38</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>39</v>
@@ -5861,12 +6150,12 @@
         <v>38</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>38</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5874,11 +6163,11 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F44" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="F44" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="G44" t="s" s="2">
         <v>38</v>
       </c>
@@ -5889,13 +6178,13 @@
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>212</v>
+        <v>48</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>272</v>
+        <v>111</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>273</v>
+        <v>112</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5946,41 +6235,41 @@
         <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>271</v>
+        <v>113</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG44" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AH44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>38</v>
@@ -5992,15 +6281,17 @@
         <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>38</v>
@@ -6037,31 +6328,31 @@
         <v>38</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>38</v>
@@ -6070,13 +6361,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="B46" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="C46" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6086,7 +6379,7 @@
         <v>40</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -6095,17 +6388,15 @@
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>92</v>
+        <v>296</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>93</v>
+        <v>297</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>38</v>
@@ -6172,16 +6463,18 @@
         <v>38</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="C47" t="s" s="2">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6191,29 +6484,25 @@
         <v>40</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>92</v>
+        <v>300</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>38</v>
       </c>
@@ -6261,7 +6550,7 @@
         <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>39</v>
@@ -6282,9 +6571,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6292,28 +6581,28 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6340,13 +6629,13 @@
         <v>38</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>38</v>
+        <v>306</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>38</v>
+        <v>307</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>38</v>
@@ -6364,16 +6653,16 @@
         <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>38</v>
+        <v>309</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>58</v>
@@ -6382,12 +6671,12 @@
         <v>38</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>38</v>
+        <v>310</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6401,25 +6690,29 @@
         <v>46</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>48</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>38</v>
       </c>
@@ -6467,7 +6760,7 @@
         <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>39</v>
@@ -6485,12 +6778,12 @@
         <v>38</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>38</v>
+        <v>317</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6501,28 +6794,32 @@
         <v>39</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>38</v>
       </c>
@@ -6546,13 +6843,13 @@
         <v>38</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>38</v>
+        <v>323</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>38</v>
+        <v>324</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>38</v>
@@ -6570,13 +6867,13 @@
         <v>38</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>38</v>
@@ -6588,12 +6885,12 @@
         <v>38</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>38</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6613,18 +6910,20 @@
         <v>38</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>48</v>
+        <v>327</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>111</v>
+        <v>328</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>38</v>
@@ -6673,7 +6972,7 @@
         <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>113</v>
+        <v>331</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>39</v>
@@ -6685,7 +6984,7 @@
         <v>38</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>38</v>
@@ -6694,42 +6993,40 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>287</v>
+        <v>332</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>93</v>
+        <v>333</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>38</v>
@@ -6778,65 +7075,63 @@
         <v>38</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>120</v>
+        <v>335</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>114</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>288</v>
+        <v>336</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>92</v>
+        <v>337</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>222</v>
+        <v>338</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>101</v>
+        <v>340</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>38</v>
@@ -6885,30 +7180,30 @@
         <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>224</v>
+        <v>336</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>89</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6919,7 +7214,7 @@
         <v>39</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>38</v>
@@ -6931,18 +7226,18 @@
         <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>38</v>
       </c>
@@ -6990,13 +7285,13 @@
         <v>38</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>38</v>
@@ -7008,12 +7303,12 @@
         <v>38</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7024,7 +7319,7 @@
         <v>39</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>38</v>
@@ -7036,16 +7331,16 @@
         <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>132</v>
+        <v>348</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>295</v>
+        <v>349</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7095,13 +7390,13 @@
         <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>38</v>
@@ -7118,7 +7413,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>298</v>
+        <v>352</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7141,13 +7436,13 @@
         <v>38</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>299</v>
+        <v>353</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>300</v>
+        <v>354</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7198,7 +7493,7 @@
         <v>38</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>298</v>
+        <v>352</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>39</v>
@@ -7221,7 +7516,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>301</v>
+        <v>355</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7324,7 +7619,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>302</v>
+        <v>356</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7429,11 +7724,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7455,10 +7750,10 @@
         <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>95</v>
@@ -7513,7 +7808,7 @@
         <v>38</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>39</v>
@@ -7536,7 +7831,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7544,10 +7839,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>38</v>
@@ -7556,16 +7851,16 @@
         <v>38</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>105</v>
+        <v>359</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>305</v>
+        <v>360</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7616,13 +7911,13 @@
         <v>38</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>38</v>
@@ -7631,15 +7926,15 @@
         <v>58</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>109</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>306</v>
+        <v>361</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7650,7 +7945,7 @@
         <v>39</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>38</v>
@@ -7662,15 +7957,17 @@
         <v>38</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>307</v>
+        <v>362</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>38</v>
@@ -7719,13 +8016,13 @@
         <v>38</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>306</v>
+        <v>361</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>38</v>
@@ -7742,7 +8039,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>309</v>
+        <v>364</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7750,7 +8047,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>40</v>
@@ -7762,16 +8059,16 @@
         <v>38</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>209</v>
+        <v>365</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>310</v>
+        <v>366</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7822,10 +8119,10 @@
         <v>38</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>309</v>
+        <v>364</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>40</v>
@@ -7845,7 +8142,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>311</v>
+        <v>367</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7856,7 +8153,7 @@
         <v>39</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>38</v>
@@ -7868,17 +8165,15 @@
         <v>38</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>269</v>
+        <v>111</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>38</v>
@@ -7927,34 +8222,34 @@
         <v>38</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>311</v>
+        <v>113</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>312</v>
+        <v>368</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -7973,15 +8268,17 @@
         <v>38</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>212</v>
+        <v>92</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>313</v>
+        <v>93</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>38</v>
@@ -8030,7 +8327,7 @@
         <v>38</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>312</v>
+        <v>120</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>39</v>
@@ -8042,50 +8339,54 @@
         <v>38</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>315</v>
+        <v>369</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>38</v>
       </c>
@@ -8133,41 +8434,41 @@
         <v>38</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>316</v>
+        <v>370</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>38</v>
@@ -8179,17 +8480,15 @@
         <v>38</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>93</v>
+        <v>371</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>38</v>
@@ -8238,66 +8537,62 @@
         <v>38</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>120</v>
+        <v>370</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>317</v>
+        <v>373</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>222</v>
+        <v>374</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>38</v>
       </c>
@@ -8345,30 +8640,30 @@
         <v>38</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>224</v>
+        <v>373</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>318</v>
+        <v>376</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8379,7 +8674,7 @@
         <v>39</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>38</v>
@@ -8391,13 +8686,13 @@
         <v>38</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>319</v>
+        <v>377</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>320</v>
+        <v>378</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8448,13 +8743,13 @@
         <v>38</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>318</v>
+        <v>376</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>38</v>
@@ -8471,7 +8766,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>321</v>
+        <v>379</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8494,13 +8789,13 @@
         <v>38</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>322</v>
+        <v>48</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>323</v>
+        <v>111</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>324</v>
+        <v>112</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8551,7 +8846,7 @@
         <v>38</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>321</v>
+        <v>113</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>39</v>
@@ -8563,29 +8858,29 @@
         <v>38</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>325</v>
+        <v>380</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>38</v>
@@ -8597,15 +8892,17 @@
         <v>38</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>326</v>
+        <v>92</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>327</v>
+        <v>93</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>38</v>
@@ -8654,62 +8951,66 @@
         <v>38</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>325</v>
+        <v>120</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>329</v>
+        <v>381</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>330</v>
+        <v>223</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>38</v>
       </c>
@@ -8757,30 +9058,30 @@
         <v>38</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>329</v>
+        <v>225</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8791,7 +9092,7 @@
         <v>39</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>38</v>
@@ -8803,15 +9104,17 @@
         <v>38</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>212</v>
+        <v>383</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>38</v>
@@ -8860,13 +9163,13 @@
         <v>38</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>38</v>
@@ -8883,7 +9186,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>335</v>
+        <v>387</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -8906,15 +9209,17 @@
         <v>38</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>111</v>
+        <v>388</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>38</v>
@@ -8963,7 +9268,7 @@
         <v>38</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>113</v>
+        <v>387</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>39</v>
@@ -8975,22 +9280,22 @@
         <v>38</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>336</v>
+        <v>391</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9009,17 +9314,15 @@
         <v>38</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>93</v>
+        <v>392</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>38</v>
@@ -9068,7 +9371,7 @@
         <v>38</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>120</v>
+        <v>391</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>39</v>
@@ -9080,54 +9383,50 @@
         <v>38</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>38</v>
       </c>
@@ -9175,41 +9474,41 @@
         <v>38</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>224</v>
+        <v>113</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>338</v>
+        <v>395</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>38</v>
@@ -9221,15 +9520,17 @@
         <v>38</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>38</v>
@@ -9278,34 +9579,34 @@
         <v>38</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>338</v>
+        <v>120</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>341</v>
+        <v>396</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -9318,22 +9619,26 @@
         <v>38</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>212</v>
+        <v>92</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>342</v>
+        <v>223</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>38</v>
       </c>
@@ -9381,7 +9686,7 @@
         <v>38</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>341</v>
+        <v>225</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>39</v>
@@ -9393,18 +9698,18 @@
         <v>38</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9415,7 +9720,7 @@
         <v>39</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>38</v>
@@ -9424,16 +9729,16 @@
         <v>38</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>112</v>
+        <v>398</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9484,41 +9789,41 @@
         <v>38</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>113</v>
+        <v>397</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>38</v>
@@ -9530,17 +9835,15 @@
         <v>38</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>93</v>
+        <v>400</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>38</v>
@@ -9589,34 +9892,34 @@
         <v>38</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>120</v>
+        <v>399</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>346</v>
+        <v>402</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -9629,26 +9932,22 @@
         <v>38</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>47</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>92</v>
+        <v>403</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>38</v>
       </c>
@@ -9696,7 +9995,7 @@
         <v>38</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>224</v>
+        <v>402</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>39</v>
@@ -9708,18 +10007,18 @@
         <v>38</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>347</v>
+        <v>405</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -9727,10 +10026,10 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>38</v>
@@ -9742,15 +10041,17 @@
         <v>38</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>38</v>
@@ -9799,13 +10100,13 @@
         <v>38</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>347</v>
+        <v>405</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>38</v>
@@ -9822,7 +10123,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>350</v>
+        <v>406</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -9845,13 +10146,13 @@
         <v>38</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>351</v>
+        <v>407</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>352</v>
+        <v>408</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -9902,7 +10203,7 @@
         <v>38</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>350</v>
+        <v>406</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>39</v>
@@ -9925,7 +10226,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>353</v>
+        <v>409</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10028,7 +10329,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>354</v>
+        <v>410</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10133,11 +10434,11 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>355</v>
+        <v>411</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -10159,10 +10460,10 @@
         <v>92</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>95</v>
@@ -10217,7 +10518,7 @@
         <v>38</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>39</v>
@@ -10240,7 +10541,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10248,7 +10549,7 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>46</v>
@@ -10266,10 +10567,10 @@
         <v>132</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>319</v>
+        <v>413</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>357</v>
+        <v>414</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10320,10 +10621,10 @@
         <v>38</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>46</v>
@@ -10343,7 +10644,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>358</v>
+        <v>415</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10366,13 +10667,13 @@
         <v>38</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>132</v>
+        <v>327</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>359</v>
+        <v>416</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>360</v>
+        <v>417</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -10399,13 +10700,13 @@
         <v>38</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>361</v>
+        <v>38</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>362</v>
+        <v>38</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>38</v>
@@ -10423,7 +10724,7 @@
         <v>38</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>358</v>
+        <v>415</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>39</v>
@@ -10446,7 +10747,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>363</v>
+        <v>418</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10457,7 +10758,7 @@
         <v>39</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>38</v>
@@ -10469,13 +10770,13 @@
         <v>38</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>132</v>
+        <v>419</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>365</v>
+        <v>421</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -10526,13 +10827,13 @@
         <v>38</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>363</v>
+        <v>418</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>38</v>
@@ -10549,7 +10850,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>366</v>
+        <v>422</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -10572,13 +10873,13 @@
         <v>38</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>290</v>
+        <v>48</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>367</v>
+        <v>423</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>368</v>
+        <v>424</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -10629,7 +10930,7 @@
         <v>38</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>366</v>
+        <v>422</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>39</v>
@@ -10650,8 +10951,1880 @@
         <v>38</v>
       </c>
     </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AK89">
+  <autoFilter ref="A1:AK107">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10661,7 +12834,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI88">
+  <conditionalFormatting sqref="A2:AI106">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
